--- a/OSX/10.11.4/10.11.4_03_22_16.xlsx
+++ b/OSX/10.11.4/10.11.4_03_22_16.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr date1904="1" autoCompressPictures="0"/>
+  <workbookPr date1904="1" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="31580" yWindow="-3280" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
@@ -10,6 +10,7 @@
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" dpi="72" codePage="65001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2109,7 +2110,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
